--- a/muestra_de_datos.xlsx
+++ b/muestra_de_datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresdelaguardia/OneDrive - ASSA/analytics/utp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\Desktop\gi-pf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{FC17BF47-3A1F-D442-94AE-43D5F020B04F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{204A2BC6-7B52-4507-A4DE-8B316C7CCD3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCA37F3-7437-4E19-9421-7381CB4D1FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{2381D3F8-9E09-8047-ADB0-3A71E3C2461C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2381D3F8-9E09-8047-ADB0-3A71E3C2461C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -516,29 +516,29 @@
   <dimension ref="A1:AG101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="U1" sqref="A1:XFD1048576"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="11" style="2"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="2" customWidth="1"/>
     <col min="5" max="10" width="11" style="2"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="11" style="2"/>
-    <col min="14" max="14" width="13.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.3984375" style="2" customWidth="1"/>
     <col min="15" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.75" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.69921875" style="2" customWidth="1"/>
     <col min="17" max="19" width="11" style="2"/>
-    <col min="20" max="20" width="12.375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="12.3984375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.8984375" style="2" customWidth="1"/>
     <col min="22" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="12.75">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="12.75">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>159122</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.75">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>81506</v>
       </c>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="12.75">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>159122</v>
       </c>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="12.75">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>112293</v>
       </c>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="12.75">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>159707</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="12.75">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>169919</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" ht="12.75">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>173492</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" ht="12.75">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>69787</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="12.75">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>52191</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="12.75">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>86272</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="12.75">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>33719</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="12.75">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>109555</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="12.75">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>31083</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="12.75">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>71369</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="12.75">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>174512</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="12.75">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>173775</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="12.75">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>150489</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="12.75">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>144847</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="12.75">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>87857</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="12.75">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>63776</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="12.75">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>77514</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="12.75">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>165015</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="12.75">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>159773</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="12.75">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>111274</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="12.75">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>164551</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="12.75">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>152518</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="12.75">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>153751</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="12.75">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>146771</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="12.75">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>143947</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="12.75">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>102597</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="12.75">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>167662</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="12.75">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>56173</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="12.75">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>132249</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="12.75">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>11144</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="12.75">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>65419</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="12.75">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>65422</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="12.75">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>65418</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="12.75">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>64853</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="12.75">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>63838</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33" ht="12.75">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>168535</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="12.75">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>134321</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="12.75">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>73090</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="12.75">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>96499</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:33" ht="12.75">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>159122</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33" ht="12.75">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>90814</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:33" ht="12.75">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>132670</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="12.75">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>132470</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" ht="12.75">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>132334</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" ht="12.75">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>173333</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:33" ht="12.75">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>80696</v>
       </c>
@@ -4614,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" ht="12.75">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>24119</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:33" ht="12.75">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>77617</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:33" ht="12.75">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>81958</v>
       </c>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:33" ht="12.75">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>82010</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:33" ht="12.75">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>168503</v>
       </c>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" ht="12.75">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>105422</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33" ht="12.75">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>159122</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" ht="12.75">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>81731</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" ht="12.75">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>159122</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:33" ht="12.75">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>63687</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:33" ht="12.75">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>63688</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33" ht="12.75">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>90004</v>
       </c>
@@ -5555,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" ht="12.75">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>4895</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:26" ht="12.75">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>169326</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26" ht="12.75">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>86662</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26" ht="12.75">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>158603</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:26" ht="12.75">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>40907</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26" ht="12.75">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>115231</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:26" ht="12.75">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>70588</v>
       </c>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:26" ht="12.75">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>4958</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:26" ht="12.75">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>151409</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:26" ht="12.75">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>158551</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:26" ht="12.75">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>151693</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26" ht="12.75">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>151345</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26" ht="12.75">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>151848</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:26" ht="12.75">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>152567</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:26" ht="12.75">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>151940</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26" ht="12.75">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>152560</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:26" ht="12.75">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>71093</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:33" ht="12.75">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>132370</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:33" ht="12.75">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>159680</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:33" ht="12.75">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>86356</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:33" ht="12.75">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>89648</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:33" ht="12.75">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>93432</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:33" ht="12.75">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85384</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:33" ht="12.75">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>35290</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:33" ht="12.75">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>24119</v>
       </c>
@@ -7485,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:33" ht="12.75">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>135054</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:33" ht="12.75">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>159122</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:33" ht="12.75">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>175199</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:33" ht="12.75">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>85507</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:33" ht="12.75">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>79019</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:33" ht="12.75">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>78805</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:33" ht="12.75">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>174874</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:33" ht="12.75">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>128247</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="12.75">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>159368</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="12.75">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>5131</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="12.75">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>159122</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="12.75">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>159122</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="15" customHeight="1">
+    <row r="101" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>159122</v>
       </c>
@@ -8499,6 +8499,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B839F9DF4422B949A2CDFD6D000FCAD5" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="588fa10be1d38e62317ee8a690b88392">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2c0498be-3939-45d6-af9f-8d4625caf959" xmlns:ns3="1809f501-f668-4092-ae33-5d55e4db77b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a02ec1bfb011b794425d93c60cabc04b" ns2:_="" ns3:_="">
     <xsd:import namespace="2c0498be-3939-45d6-af9f-8d4625caf959"/>
@@ -8667,15 +8676,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8688,13 +8688,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73528DC3-B1CA-42E8-B4D3-6E66FB14ACFE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8012BDDA-4761-4F0A-9048-90E762016169}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8012BDDA-4761-4F0A-9048-90E762016169}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73528DC3-B1CA-42E8-B4D3-6E66FB14ACFE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2c0498be-3939-45d6-af9f-8d4625caf959"/>
+    <ds:schemaRef ds:uri="1809f501-f668-4092-ae33-5d55e4db77b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BCEC712-13E1-497C-925B-E19F7E981113}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BCEC712-13E1-497C-925B-E19F7E981113}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1809f501-f668-4092-ae33-5d55e4db77b9"/>
+    <ds:schemaRef ds:uri="2c0498be-3939-45d6-af9f-8d4625caf959"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>